--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H2">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>60.40364865672134</v>
+        <v>60.99397573917244</v>
       </c>
       <c r="R2">
-        <v>543.6328379104921</v>
+        <v>548.945781652552</v>
       </c>
       <c r="S2">
-        <v>0.2714557746230463</v>
+        <v>0.1772697125471338</v>
       </c>
       <c r="T2">
-        <v>0.2714557746230463</v>
+        <v>0.1772697125471338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H3">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>0.1995402636726667</v>
+        <v>0.09745468336533335</v>
       </c>
       <c r="R3">
-        <v>1.795862373054</v>
+        <v>0.877092150288</v>
       </c>
       <c r="S3">
-        <v>0.0008967398170197017</v>
+        <v>0.0002832372131375836</v>
       </c>
       <c r="T3">
-        <v>0.0008967398170197014</v>
+        <v>0.0002832372131375836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H4">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>1.286877910865333</v>
+        <v>0.966126996552</v>
       </c>
       <c r="R4">
-        <v>11.581901197788</v>
+        <v>8.695142968968</v>
       </c>
       <c r="S4">
-        <v>0.005783267201696851</v>
+        <v>0.002807901155602265</v>
       </c>
       <c r="T4">
-        <v>0.00578326720169685</v>
+        <v>0.002807901155602265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H5">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>25.05067987639156</v>
+        <v>11.50869979037333</v>
       </c>
       <c r="R5">
-        <v>225.456118887524</v>
+        <v>103.57829811336</v>
       </c>
       <c r="S5">
-        <v>0.1125784925563954</v>
+        <v>0.03344828532501266</v>
       </c>
       <c r="T5">
-        <v>0.1125784925563954</v>
+        <v>0.03344828532501267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.996332</v>
       </c>
       <c r="I6">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J6">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>45.15229034019733</v>
+        <v>93.35366690246089</v>
       </c>
       <c r="R6">
-        <v>406.370613061776</v>
+        <v>840.183002122148</v>
       </c>
       <c r="S6">
-        <v>0.20291572153132</v>
+        <v>0.2713182326036164</v>
       </c>
       <c r="T6">
-        <v>0.20291572153132</v>
+        <v>0.2713182326036164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.996332</v>
       </c>
       <c r="I7">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J7">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>0.1491582068346667</v>
@@ -883,10 +883,10 @@
         <v>1.342423861512</v>
       </c>
       <c r="S7">
-        <v>0.0006703213709455869</v>
+        <v>0.0004335056393552293</v>
       </c>
       <c r="T7">
-        <v>0.0006703213709455866</v>
+        <v>0.0004335056393552293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.996332</v>
       </c>
       <c r="I8">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J8">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>0.9619532322293332</v>
+        <v>1.478695178148</v>
       </c>
       <c r="R8">
-        <v>8.657579090063999</v>
+        <v>13.308256603332</v>
       </c>
       <c r="S8">
-        <v>0.004323046134016942</v>
+        <v>0.004297602607445398</v>
       </c>
       <c r="T8">
-        <v>0.004323046134016941</v>
+        <v>0.004297602607445398</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.996332</v>
       </c>
       <c r="I9">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J9">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>18.72561668296355</v>
+        <v>17.61451542862666</v>
       </c>
       <c r="R9">
-        <v>168.530550146672</v>
+        <v>158.53063885764</v>
       </c>
       <c r="S9">
-        <v>0.08415347243104804</v>
+        <v>0.05119390970745185</v>
       </c>
       <c r="T9">
-        <v>0.08415347243104801</v>
+        <v>0.05119390970745186</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H10">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I10">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J10">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>40.91618712634934</v>
+        <v>116.2806585695929</v>
       </c>
       <c r="R10">
-        <v>368.245684137144</v>
+        <v>1046.525927126336</v>
       </c>
       <c r="S10">
-        <v>0.1838785490281598</v>
+        <v>0.3379520464048835</v>
       </c>
       <c r="T10">
-        <v>0.1838785490281598</v>
+        <v>0.3379520464048836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H11">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I11">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J11">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>0.1351644635586667</v>
+        <v>0.1857903936426667</v>
       </c>
       <c r="R11">
-        <v>1.216480172028</v>
+        <v>1.672113542784</v>
       </c>
       <c r="S11">
-        <v>0.0006074330768550953</v>
+        <v>0.000539971518103588</v>
       </c>
       <c r="T11">
-        <v>0.0006074330768550949</v>
+        <v>0.0005399715181035881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H12">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I12">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J12">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>0.8717045837573333</v>
+        <v>1.841852118336</v>
       </c>
       <c r="R12">
-        <v>7.845341253816</v>
+        <v>16.576669065024</v>
       </c>
       <c r="S12">
-        <v>0.003917466051944802</v>
+        <v>0.005353063013435598</v>
       </c>
       <c r="T12">
-        <v>0.003917466051944801</v>
+        <v>0.0053530630134356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H13">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I13">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J13">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>16.96881443850756</v>
+        <v>21.94051420138666</v>
       </c>
       <c r="R13">
-        <v>152.719329946568</v>
+        <v>197.46462781248</v>
       </c>
       <c r="S13">
-        <v>0.07625835144525236</v>
+        <v>0.06376676710251274</v>
       </c>
       <c r="T13">
-        <v>0.07625835144525232</v>
+        <v>0.06376676710251275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H14">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I14">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J14">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N14">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q14">
-        <v>8.125882308045334</v>
+        <v>14.64470821926911</v>
       </c>
       <c r="R14">
-        <v>73.13294077240799</v>
+        <v>131.802373973422</v>
       </c>
       <c r="S14">
-        <v>0.03651795422097741</v>
+        <v>0.04256261679789472</v>
       </c>
       <c r="T14">
-        <v>0.0365179542209774</v>
+        <v>0.04256261679789473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H15">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I15">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J15">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.347366</v>
       </c>
       <c r="O15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q15">
-        <v>0.02684342311066667</v>
+        <v>0.02339895678533334</v>
       </c>
       <c r="R15">
-        <v>0.241590807996</v>
+        <v>0.210590611068</v>
       </c>
       <c r="S15">
-        <v>0.0001206351334081103</v>
+        <v>6.800550862558228E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001206351334081103</v>
+        <v>6.80055086255823E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H16">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I16">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J16">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N16">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q16">
-        <v>0.1731189867013333</v>
+        <v>0.231967957422</v>
       </c>
       <c r="R16">
-        <v>1.558070880312</v>
+        <v>2.087711616798</v>
       </c>
       <c r="S16">
-        <v>0.0007780018207846799</v>
+        <v>0.0006741795830491251</v>
       </c>
       <c r="T16">
-        <v>0.0007780018207846798</v>
+        <v>0.0006741795830491253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H17">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I17">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J17">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N17">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q17">
-        <v>3.369976498752889</v>
+        <v>2.763249130273333</v>
       </c>
       <c r="R17">
-        <v>30.329788488776</v>
+        <v>24.86924217246</v>
       </c>
       <c r="S17">
-        <v>0.01514477355712905</v>
+        <v>0.00803096327273972</v>
       </c>
       <c r="T17">
-        <v>0.01514477355712904</v>
+        <v>0.008030963272739722</v>
       </c>
     </row>
   </sheetData>
